--- a/website/csv_files/Patent_Download.xlsx
+++ b/website/csv_files/Patent_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,24 +479,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>patent by sdkj</t>
+          <t>New Patent Edited</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>bhsd</t>
+          <t>12346</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>sbvjh</t>
+          <t>Working on New Technologies</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45325</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="3">
@@ -513,24 +513,24 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dsjnvdsvkb</t>
+          <t>New Author</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>njndksvdsh</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> jdvsjv </t>
+          <t>New {Patent</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -539,108 +539,6 @@
         </is>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45323</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>kanskjsd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">jksdvs </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>vds kjv sjk</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>45292</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>wekjvhiu</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>dfkj</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>dskj</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>44927</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>svklnsvdjkdsn</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>vjdskvndskj</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>jndvskjnvs</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
         <v>44927</v>
       </c>
     </row>

--- a/website/csv_files/Patent_Download.xlsx
+++ b/website/csv_files/Patent_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,24 +479,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>New Patent Edited</t>
+          <t>New Author</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Working on New Technologies</t>
+          <t>New {Patent</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -505,40 +505,6 @@
         </is>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45008</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>New Author</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1425</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>New {Patent</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
         <v>44927</v>
       </c>
     </row>

--- a/website/csv_files/Patent_Download.xlsx
+++ b/website/csv_files/Patent_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,6 +508,74 @@
         <v>44927</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>s,vnds</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sdfnvkj</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>djf nk</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>New Patent</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5156</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>askjcndskv</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>44927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/website/csv_files/Patent_Download.xlsx
+++ b/website/csv_files/Patent_Download.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,6 +576,40 @@
         <v>44927</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>30</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wkjvbewkj edited</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>dnsvkjds</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>vdskjv</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>44927</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
